--- a/Sprint 1/Back-End/Dicionario Bronze-Silver.xlsx
+++ b/Sprint 1/Back-End/Dicionario Bronze-Silver.xlsx
@@ -1,113 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25301"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_AA67C3FACC64E9DFAFAF74486D6A87A3F6A11CE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188006AD-8842-4A78-BA98-A527CE4A2D24}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelas" sheetId="1" r:id="rId1"/>
+    <sheet name="Campos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Fonte_Dado</t>
   </si>
   <si>
+    <t>Origem_dado</t>
+  </si>
+  <si>
+    <t>Validador</t>
+  </si>
+  <si>
     <t>CAMPOS</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Relação</t>
+  </si>
+  <si>
     <t>id_fonte_dado</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>id_origem_dado</t>
+  </si>
+  <si>
+    <t>id_validador</t>
+  </si>
+  <si>
     <t>volume</t>
   </si>
   <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>desc_origem</t>
+  </si>
+  <si>
+    <t>NN / UNIQUE</t>
+  </si>
+  <si>
+    <t>FK / NN</t>
+  </si>
+  <si>
     <t>frequencia</t>
   </si>
   <si>
-    <t>id_origem_dado</t>
+    <t>desc_regra</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>obrigatorio</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>id_produto</t>
   </si>
   <si>
     <t>id_formato</t>
   </si>
   <si>
+    <t>formato</t>
+  </si>
+  <si>
     <t>id_sistema</t>
   </si>
   <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
-    <t>id_produto</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>Relação</t>
-  </si>
-  <si>
-    <t>Origem_dado</t>
-  </si>
-  <si>
-    <t>desc_origem</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>formato</t>
-  </si>
-  <si>
     <t>Sistema</t>
   </si>
   <si>
     <t>sistema</t>
   </si>
   <si>
-    <t>Validador</t>
-  </si>
-  <si>
-    <t>id_validador</t>
-  </si>
-  <si>
-    <t>desc_regra</t>
-  </si>
-  <si>
-    <t>obrigatorio</t>
-  </si>
-  <si>
     <t>FONTE DE DADOS - BRONZE</t>
   </si>
   <si>
     <t>Validador - Silver</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>SFTP</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>planilhas</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>tabelas</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Texto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -449,39 +524,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +711,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +729,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,13 +741,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,23 +759,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,9 +813,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -645,7 +853,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -680,6 +888,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -715,9 +940,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -890,23 +1132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -925,7 +1170,7 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -944,213 +1189,225 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="22"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="L3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="20"/>
       <c r="L4" s="15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="20"/>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="20"/>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="20"/>
-      <c r="B8" s="30" t="s">
-        <v>10</v>
+      <c r="B8" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="22"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="L8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="20"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="20"/>
@@ -1161,29 +1418,29 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="20"/>
-      <c r="B10" s="30" t="s">
-        <v>10</v>
+      <c r="B10" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="20"/>
@@ -1194,26 +1451,28 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="20"/>
-      <c r="B11" s="31"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="20"/>
       <c r="L11" s="21"/>
@@ -1223,17 +1482,17 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="20"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1248,18 +1507,18 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="22"/>
       <c r="K13" s="20"/>
       <c r="L13" s="21"/>
@@ -1269,7 +1528,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1277,13 +1536,13 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="20"/>
@@ -1294,7 +1553,7 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1302,13 +1561,13 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="20"/>
@@ -1319,7 +1578,7 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1327,12 +1586,14 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -1342,7 +1603,7 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1361,30 +1622,30 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" s="44" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
+      <c r="A18" s="20"/>
+      <c r="B18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1418,4 +1679,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525E7CE-749A-4004-A7BE-DC3DD63AA6B0}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="E2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="H2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="2:9" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B3" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="47">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="54">
+        <v>1</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="49">
+        <v>2</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="49">
+        <v>2</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="55">
+        <v>2</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="51">
+        <v>3</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="49">
+        <v>3</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="56">
+        <v>3</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="E7" s="49">
+        <v>4</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="49">
+        <v>5</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="E9" s="49">
+        <v>6</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="E10" s="51">
+        <v>7</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>